--- a/simplefly/bigtest/results_3.xlsx
+++ b/simplefly/bigtest/results_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellahuang/Documents/Boulder/spring '20/independent study/fireflies/simplefly/bigtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58F1AC1-275A-D347-BA35-055DF5DE91F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9725BA60-898B-5C46-9830-DCF2C4FF3763}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="132">
   <si>
     <t>('commonsub_og', 0)</t>
   </si>
@@ -401,6 +401,21 @@
   </si>
   <si>
     <t>*fewer flashes in general…</t>
+  </si>
+  <si>
+    <t>sorted the other way</t>
+  </si>
+  <si>
+    <t>*I like!</t>
+  </si>
+  <si>
+    <t>*not bad</t>
+  </si>
+  <si>
+    <t>*pretty good</t>
+  </si>
+  <si>
+    <t>*DO SEEM MORE PERIODIC LOOKING</t>
   </si>
 </sst>
 </file>
@@ -549,7 +564,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,6 +747,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,12 +917,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1257,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1269,7 +1291,7 @@
     <col min="9" max="11" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1288,6 +1310,9 @@
       <c r="F1">
         <v>4.6666666666666599</v>
       </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
       <c r="H1" t="s">
         <v>70</v>
       </c>
@@ -1307,7 +1332,7 @@
         <v>6.6666666666666599</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1329,13 +1354,13 @@
       <c r="H2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="4">
@@ -1348,7 +1373,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1367,6 +1392,9 @@
       <c r="F3">
         <v>6</v>
       </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
       <c r="H3" t="s">
         <v>68</v>
       </c>
@@ -1389,7 +1417,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1426,8 +1454,11 @@
       <c r="M4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1446,6 +1477,9 @@
       <c r="F5">
         <v>6.3333333333333304</v>
       </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
       <c r="H5" t="s">
         <v>82</v>
       </c>
@@ -1465,7 +1499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1503,7 +1537,7 @@
         <v>5.6666666666666599</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1522,6 +1556,9 @@
       <c r="F7">
         <v>6</v>
       </c>
+      <c r="G7" t="s">
+        <v>130</v>
+      </c>
       <c r="H7" t="s">
         <v>116</v>
       </c>
@@ -1541,7 +1578,7 @@
         <v>4.6666666666666599</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1616,7 @@
         <v>4.6666666666666599</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1617,7 +1654,7 @@
         <v>5.6666666666666599</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -1655,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1693,7 +1730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1768,7 @@
         <v>6.3333333333333304</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1769,7 +1806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1807,7 +1844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1845,7 +1882,7 @@
         <v>6.6666666666666599</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2033,6 +2070,11 @@
       </c>
       <c r="M20">
         <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">

--- a/simplefly/bigtest/results_3.xlsx
+++ b/simplefly/bigtest/results_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellahuang/Documents/Boulder/spring '20/independent study/fireflies/simplefly/bigtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9725BA60-898B-5C46-9830-DCF2C4FF3763}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EBE97E-722E-3949-821D-9F9F174AB55D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13860" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
   <si>
     <t>('commonsub_og', 0)</t>
   </si>
@@ -130,9 +130,6 @@
     <t>('[1, 1, 1, 0, 0, 1, 1, 1, 0, 0]', 0)</t>
   </si>
   <si>
-    <t>('[1, 0, 1, 1, 1, 1, 1, 0, 1, 0]', 1)</t>
-  </si>
-  <si>
     <t>('commonsub_og', 10)</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>*fewer flashes in general…</t>
   </si>
   <si>
-    <t>sorted the other way</t>
-  </si>
-  <si>
     <t>*I like!</t>
   </si>
   <si>
@@ -416,13 +410,16 @@
   </si>
   <si>
     <t>*DO SEEM MORE PERIODIC LOOKING</t>
+  </si>
+  <si>
+    <t>('[1, 1, 1, 1, 1, 0, 1, 0, 1, 0]', 1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -559,6 +556,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -917,13 +921,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1279,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1299,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
@@ -1311,12 +1318,12 @@
         <v>4.6666666666666599</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1334,16 +1341,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E2">
         <v>18</v>
@@ -1351,16 +1358,16 @@
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="4">
@@ -1370,17 +1377,17 @@
         <v>5</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
@@ -1393,10 +1400,10 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
+        <v>127</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
@@ -1405,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L3">
         <v>24.6666666666666</v>
@@ -1414,20 +1421,20 @@
         <v>6.6666666666666599</v>
       </c>
       <c r="N3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E4">
@@ -1436,14 +1443,14 @@
       <c r="F4">
         <v>3.3333333333333299</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
         <v>75</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>76</v>
-      </c>
-      <c r="J4" t="s">
-        <v>77</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
@@ -1455,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1468,7 +1475,7 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E5">
@@ -1478,16 +1485,16 @@
         <v>6.3333333333333304</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
         <v>82</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>83</v>
-      </c>
-      <c r="J5" t="s">
-        <v>84</v>
       </c>
       <c r="K5" t="s">
         <v>3</v>
@@ -1501,15 +1508,15 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E6">
@@ -1519,16 +1526,16 @@
         <v>2.6666666666666599</v>
       </c>
       <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
         <v>89</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>90</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
       </c>
       <c r="L6">
         <v>28.3333333333333</v>
@@ -1538,17 +1545,17 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
       </c>
       <c r="E7">
         <v>24</v>
@@ -1557,19 +1564,19 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" t="s">
         <v>116</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>117</v>
       </c>
-      <c r="J7" t="s">
-        <v>118</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7">
         <v>28.6666666666666</v>
@@ -1598,15 +1605,15 @@
         <v>5.6666666666666599</v>
       </c>
       <c r="H8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
         <v>123</v>
       </c>
-      <c r="I8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="K8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L8">
@@ -1618,15 +1625,15 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E9">
@@ -1636,16 +1643,16 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" t="s">
         <v>109</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>110</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>111</v>
-      </c>
-      <c r="K9" t="s">
-        <v>112</v>
       </c>
       <c r="L9">
         <v>32.3333333333333</v>
@@ -1656,16 +1663,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
       </c>
       <c r="E10">
         <v>25.3333333333333</v>
@@ -1674,16 +1681,16 @@
         <v>6.3333333333333304</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L10">
         <v>33.3333333333333</v>
@@ -1696,7 +1703,7 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
@@ -1712,16 +1719,16 @@
         <v>5.6666666666666599</v>
       </c>
       <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
         <v>85</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>86</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>87</v>
-      </c>
-      <c r="K11" t="s">
-        <v>88</v>
       </c>
       <c r="L11">
         <v>35.6666666666666</v>
@@ -1750,16 +1757,16 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
         <v>93</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>94</v>
       </c>
-      <c r="J12" t="s">
-        <v>95</v>
-      </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L12">
         <v>35.6666666666666</v>
@@ -1788,13 +1795,13 @@
         <v>4.3333333333333304</v>
       </c>
       <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
         <v>96</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>97</v>
-      </c>
-      <c r="J13" t="s">
-        <v>98</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -1826,16 +1833,16 @@
         <v>4</v>
       </c>
       <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
         <v>71</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>72</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" t="s">
-        <v>74</v>
       </c>
       <c r="L14">
         <v>46.3333333333333</v>
@@ -1846,16 +1853,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>35.3333333333333</v>
@@ -1864,16 +1871,16 @@
         <v>4.6666666666666599</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L15">
         <v>56</v>
@@ -1884,13 +1891,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1902,13 +1909,13 @@
         <v>5.6666666666666599</v>
       </c>
       <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
         <v>106</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>107</v>
-      </c>
-      <c r="J16" t="s">
-        <v>108</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -1922,16 +1929,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
       </c>
       <c r="E17">
         <v>36.6666666666666</v>
@@ -1940,16 +1947,16 @@
         <v>5.3333333333333304</v>
       </c>
       <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
         <v>78</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>79</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>80</v>
-      </c>
-      <c r="K17" t="s">
-        <v>81</v>
       </c>
       <c r="L17">
         <v>61.3333333333333</v>
@@ -1968,7 +1975,7 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E18">
@@ -1978,16 +1985,16 @@
         <v>5.3333333333333304</v>
       </c>
       <c r="H18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" t="s">
         <v>103</v>
-      </c>
-      <c r="I18" t="s">
-        <v>104</v>
       </c>
       <c r="J18" t="s">
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L18">
         <v>62</v>
@@ -1998,7 +2005,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2016,16 +2023,16 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s">
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L19">
         <v>66</v>
@@ -2036,16 +2043,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
       </c>
       <c r="E20">
         <v>44.6666666666666</v>
@@ -2054,16 +2061,16 @@
         <v>6.3333333333333304</v>
       </c>
       <c r="H20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" t="s">
         <v>113</v>
-      </c>
-      <c r="I20" t="s">
-        <v>114</v>
       </c>
       <c r="J20" t="s">
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L20">
         <v>69.6666666666666</v>
@@ -2072,770 +2079,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>23.6666666666666</v>
-      </c>
-      <c r="F24">
-        <v>2.6666666666666599</v>
-      </c>
-      <c r="H24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" t="s">
-        <v>117</v>
-      </c>
-      <c r="J24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24">
-        <v>28.6666666666666</v>
-      </c>
-      <c r="M24">
-        <v>4.6666666666666599</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="D24" s="6"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25">
-        <v>18</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="H25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" t="s">
-        <v>124</v>
-      </c>
-      <c r="K25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25">
-        <v>30.3333333333333</v>
-      </c>
-      <c r="M25">
-        <v>4.6666666666666599</v>
-      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>24.6666666666666</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="H26" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" t="s">
-        <v>100</v>
-      </c>
-      <c r="K26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26">
-        <v>18</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="D26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>22.3333333333333</v>
-      </c>
-      <c r="F27">
-        <v>3.3333333333333299</v>
-      </c>
-      <c r="H27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27">
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="H28" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29">
-        <v>32.3333333333333</v>
-      </c>
-      <c r="F29">
-        <v>4.3333333333333304</v>
-      </c>
-      <c r="H29" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" t="s">
-        <v>88</v>
-      </c>
-      <c r="L29">
-        <v>35.6666666666666</v>
-      </c>
-      <c r="M29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30">
-        <v>17.3333333333333</v>
-      </c>
-      <c r="F30">
-        <v>4.6666666666666599</v>
-      </c>
-      <c r="H30" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" t="s">
-        <v>90</v>
-      </c>
-      <c r="J30" t="s">
-        <v>91</v>
-      </c>
-      <c r="K30" t="s">
-        <v>92</v>
-      </c>
-      <c r="L30">
-        <v>28.3333333333333</v>
-      </c>
-      <c r="M30">
-        <v>5.6666666666666599</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31">
-        <v>35.3333333333333</v>
-      </c>
-      <c r="F31">
-        <v>4.6666666666666599</v>
-      </c>
-      <c r="H31" t="s">
-        <v>109</v>
-      </c>
-      <c r="I31" t="s">
-        <v>110</v>
-      </c>
-      <c r="J31" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" t="s">
-        <v>112</v>
-      </c>
-      <c r="L31">
-        <v>32.3333333333333</v>
-      </c>
-      <c r="M31">
-        <v>5.6666666666666599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>27</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="H32" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" t="s">
-        <v>97</v>
-      </c>
-      <c r="J32" t="s">
-        <v>98</v>
-      </c>
-      <c r="K32" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32">
-        <v>39</v>
-      </c>
-      <c r="M32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33">
-        <v>41.6666666666666</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="H33" t="s">
-        <v>71</v>
-      </c>
-      <c r="I33" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L33">
-        <v>46.3333333333333</v>
-      </c>
-      <c r="M33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34">
-        <v>36.6666666666666</v>
-      </c>
-      <c r="F34">
-        <v>5.3333333333333304</v>
-      </c>
-      <c r="H34" t="s">
-        <v>93</v>
-      </c>
-      <c r="I34" t="s">
-        <v>94</v>
-      </c>
-      <c r="J34" t="s">
-        <v>95</v>
-      </c>
-      <c r="K34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34">
-        <v>35.6666666666666</v>
-      </c>
-      <c r="M34">
-        <v>6.3333333333333304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>37.3333333333333</v>
-      </c>
-      <c r="F35">
-        <v>5.3333333333333304</v>
-      </c>
-      <c r="H35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35">
-        <v>17.3333333333333</v>
-      </c>
-      <c r="M35">
-        <v>6.6666666666666599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>24.3333333333333</v>
-      </c>
-      <c r="F36">
-        <v>5.6666666666666599</v>
-      </c>
-      <c r="H36" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>5</v>
-      </c>
-      <c r="K36" t="s">
-        <v>69</v>
-      </c>
-      <c r="L36">
-        <v>24.6666666666666</v>
-      </c>
-      <c r="M36">
-        <v>6.6666666666666599</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37">
-        <v>26.3333333333333</v>
-      </c>
-      <c r="F37">
-        <v>5.6666666666666599</v>
-      </c>
-      <c r="H37" t="s">
-        <v>121</v>
-      </c>
-      <c r="I37" t="s">
-        <v>114</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K37" t="s">
-        <v>122</v>
-      </c>
-      <c r="L37">
-        <v>56</v>
-      </c>
-      <c r="M37">
-        <v>6.6666666666666599</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38">
-        <v>36.3333333333333</v>
-      </c>
-      <c r="F38">
-        <v>5.6666666666666599</v>
-      </c>
-      <c r="H38" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" t="s">
-        <v>107</v>
-      </c>
-      <c r="J38" t="s">
-        <v>108</v>
-      </c>
-      <c r="K38" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38">
-        <v>57.6666666666666</v>
-      </c>
-      <c r="M38">
-        <v>6.6666666666666599</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39">
-        <v>21.6666666666666</v>
-      </c>
-      <c r="F39">
-        <v>6</v>
-      </c>
-      <c r="H39" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39" t="s">
-        <v>83</v>
-      </c>
-      <c r="J39" t="s">
-        <v>84</v>
-      </c>
-      <c r="K39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L39">
-        <v>26</v>
-      </c>
-      <c r="M39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40">
-        <v>24</v>
-      </c>
-      <c r="F40">
-        <v>6</v>
-      </c>
-      <c r="H40" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40" t="s">
-        <v>104</v>
-      </c>
-      <c r="J40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40" t="s">
-        <v>105</v>
-      </c>
-      <c r="L40">
-        <v>62</v>
-      </c>
-      <c r="M40">
-        <v>7.3333333333333304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41">
-        <v>22.6666666666666</v>
-      </c>
-      <c r="F41">
-        <v>6.3333333333333304</v>
-      </c>
-      <c r="H41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I41" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K41" t="s">
-        <v>102</v>
-      </c>
-      <c r="L41">
-        <v>66</v>
-      </c>
-      <c r="M41">
-        <v>7.3333333333333304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42">
-        <v>25.3333333333333</v>
-      </c>
-      <c r="F42">
-        <v>6.3333333333333304</v>
-      </c>
-      <c r="H42" t="s">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s">
-        <v>79</v>
-      </c>
-      <c r="J42" t="s">
-        <v>80</v>
-      </c>
-      <c r="K42" t="s">
-        <v>81</v>
-      </c>
-      <c r="L42">
-        <v>61.3333333333333</v>
-      </c>
-      <c r="M42">
-        <v>7.6666666666666599</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43">
-        <v>44.6666666666666</v>
-      </c>
-      <c r="F43">
-        <v>6.3333333333333304</v>
-      </c>
-      <c r="H43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K43" t="s">
-        <v>115</v>
-      </c>
-      <c r="L43">
-        <v>69.6666666666666</v>
-      </c>
-      <c r="M43">
-        <v>8</v>
-      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D41" s="6"/>
     </row>
   </sheetData>
   <sortState ref="H24:M43">
